--- a/branches/may/ValueSet-medication-line-origin-type-vs.xlsx
+++ b/branches/may/ValueSet-medication-line-origin-type-vs.xlsx
@@ -36,7 +36,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>MedicationLineOrigintypeVS</t>
+    <t>MedicationLineOriginTypeVS</t>
   </si>
   <si>
     <t>Title</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-07T09:01:04+00:00</t>
+    <t>2024-05-07T09:20:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/may/ValueSet-medication-line-origin-type-vs.xlsx
+++ b/branches/may/ValueSet-medication-line-origin-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-07T09:20:42+00:00</t>
+    <t>2024-05-07T13:22:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
